--- a/data/excel/Viaggi in totale (IT1,68_265_DF_DCCV_VIAGGI_SPESE_CAPI_1,1.0).xlsx
+++ b/data/excel/Viaggi in totale (IT1,68_265_DF_DCCV_VIAGGI_SPESE_CAPI_1,1.0).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t xml:space="preserve">Viaggi in totale  </t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Indicatore  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018  </t>
   </si>
   <si>
     <t xml:space="preserve">2019  </t>
@@ -272,45 +275,57 @@
       <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="L6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="K7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -340,111 +355,135 @@
         <v>4</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
+        <v>821</v>
+      </c>
+      <c r="C9" s="1">
+        <v>122</v>
+      </c>
+      <c r="D9" s="1">
         <v>833</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>126</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>769</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>135</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>873</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>97</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>821</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>116</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>947</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
+        <v>365</v>
+      </c>
+      <c r="C10" s="1">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1">
         <v>391</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>85</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>408</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>77</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>460</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>82</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>447</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>89</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>471</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
+        <v>472</v>
+      </c>
+      <c r="C11" s="1">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1">
         <v>505</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>98</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>437</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>82</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>498</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>84</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>524</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>96</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>581</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>110</v>
       </c>
     </row>
@@ -455,7 +494,8 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
